--- a/cases/login.xlsx
+++ b/cases/login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7140" windowWidth="19200"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7140" windowWidth="18650"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" state="visible" r:id="rId1"/>
@@ -47,15 +47,31 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -70,6 +86,20 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
@@ -78,7 +108,69 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -93,103 +185,11 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -214,25 +214,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,61 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,91 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,32 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,15 +442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -495,8 +460,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +504,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -523,10 +523,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="17" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="6" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -535,137 +535,137 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="9" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="9" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="31" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="24" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="24" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="29" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,6 +681,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="35" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1105,8 +1108,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1322,7 +1325,7 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>vxg3</t>
+          <t>5f4</t>
         </is>
       </c>
     </row>
@@ -1393,9 +1396,9 @@
           <t>tianmeng</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1532,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>wxk11</t>
+          <t>wxk111</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1577,7 @@
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>76nk</t>
+          <t>wtm</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1648,7 @@
           <t>tianmeng</t>
         </is>
       </c>
-      <c r="H22" s="8" t="inlineStr">
+      <c r="H22" s="9" t="inlineStr">
         <is>
           <t>false</t>
         </is>
